--- a/场景用例.xlsx
+++ b/场景用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17628" windowHeight="7752"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>用例编号：</t>
   </si>
   <si>
-    <t>signon-case-01</t>
+    <t>signon-scenariocase-01</t>
   </si>
   <si>
     <t>关联脚本用例编号：</t>
+  </si>
+  <si>
+    <t>signon-scriptcase-01</t>
   </si>
   <si>
     <t>场景类型：</t>
@@ -121,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -135,6 +138,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -142,14 +160,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,7 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,29 +213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,48 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +257,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -287,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,24 +538,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,41 +558,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +581,54 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -636,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1129,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1158,7 +1161,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1166,26 +1169,26 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="22" customHeight="1" spans="2:7">
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="2:7">
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>100</v>
@@ -1197,10 +1200,10 @@
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="2:7">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1209,10 +1212,10 @@
     <row r="6" s="1" customFormat="1" ht="19" customHeight="1" spans="2:7">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1221,10 +1224,10 @@
     <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1232,27 +1235,27 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="2:7">
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="19" customHeight="1" spans="2:7">
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
@@ -1262,30 +1265,30 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5">
         <f>100%</f>
@@ -1295,15 +1298,15 @@
         <v>100</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
@@ -1313,27 +1316,27 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
@@ -1343,11 +1346,11 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
